--- a/Design/Excel/CharacterTransitionTable.xlsx
+++ b/Design/Excel/CharacterTransitionTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ProjectPM\Design\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB35693C-CB6F-453D-9637-97EE8E4F7FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA1BB68-1EE2-4B9B-878C-23F5A4AC9ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDEA8EF6-99BA-4D84-B48D-557D0DFDEA15}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
@@ -519,6 +519,11 @@
         <v>11</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/Excel/CharacterTransitionTable.xlsx
+++ b/Design/Excel/CharacterTransitionTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ProjectPM\Design\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA1BB68-1EE2-4B9B-878C-23F5A4AC9ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6FA68B-E0A9-4A25-B1A0-8DA01A2385E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transition" sheetId="2" r:id="rId1"/>
@@ -67,11 +67,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ComboCondition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WaitCondition</t>
+    <t>[Combo]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[AnimationAllWait]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -410,7 +410,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -418,7 +418,7 @@
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="19.75" customWidth="1"/>
     <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="4" max="4" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -459,7 +459,7 @@
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -473,7 +473,7 @@
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -487,7 +487,7 @@
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -501,7 +501,7 @@
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -515,7 +515,7 @@
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Design/Excel/CharacterTransitionTable.xlsx
+++ b/Design/Excel/CharacterTransitionTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ProjectPM\Design\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0D1735-33CE-4CA4-9888-190AFBFCD264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84ACCE0E-35DD-4AEB-ACB0-634E86C70188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transition" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
   <si>
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -109,6 +109,10 @@
   </si>
   <si>
     <t>[Attack]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[FallDown]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -447,18 +451,18 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="19.75" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="19.69921875" customWidth="1"/>
+    <col min="3" max="3" width="14.19921875" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -472,7 +476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -486,7 +490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -500,7 +504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -514,7 +518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -528,7 +532,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -542,7 +546,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -553,10 +557,10 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -570,7 +574,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -584,16 +588,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="C12" s="1"/>
     </row>
@@ -611,13 +615,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.75" customWidth="1"/>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="1" max="1" width="16.69921875" customWidth="1"/>
+    <col min="2" max="2" width="21.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,7 +629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -633,7 +637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -655,13 +659,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.375" customWidth="1"/>
-    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="1" max="1" width="21.3984375" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -669,7 +673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -677,7 +681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -685,7 +689,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -693,7 +697,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>

--- a/Design/Excel/CharacterTransitionTable.xlsx
+++ b/Design/Excel/CharacterTransitionTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ProjectPM\Design\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84ACCE0E-35DD-4AEB-ACB0-634E86C70188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456C3900-449B-434A-89A6-D68058B30B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transition" sheetId="2" r:id="rId1"/>
@@ -108,11 +108,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[Attack]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[FallDown]</t>
+    <t>[PressMove]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PressAttack]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -451,18 +451,18 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="19.69921875" customWidth="1"/>
-    <col min="3" max="3" width="14.19921875" customWidth="1"/>
+    <col min="2" max="2" width="19.75" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -490,7 +490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -504,7 +504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -518,7 +518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -529,10 +529,10 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -546,7 +546,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -557,10 +557,10 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -574,7 +574,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -585,19 +585,19 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="C12" s="1"/>
     </row>
@@ -615,13 +615,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.69921875" customWidth="1"/>
-    <col min="2" max="2" width="21.59765625" customWidth="1"/>
+    <col min="1" max="1" width="16.75" customWidth="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -629,7 +629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -637,7 +637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -659,13 +659,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.3984375" customWidth="1"/>
-    <col min="2" max="2" width="18.3984375" customWidth="1"/>
+    <col min="1" max="1" width="21.375" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -681,7 +681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -689,7 +689,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -697,7 +697,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>

--- a/Design/Excel/CharacterTransitionTable.xlsx
+++ b/Design/Excel/CharacterTransitionTable.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ProjectPM\Design\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456C3900-449B-434A-89A6-D68058B30B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AE98C7-F7E4-4DD4-BD3D-FB3A9444E735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10116" yWindow="1932" windowWidth="11940" windowHeight="10032" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transition" sheetId="2" r:id="rId1"/>
-    <sheet name="DefaultTransition" sheetId="4" r:id="rId2"/>
-    <sheet name="LoopTransition" sheetId="5" r:id="rId3"/>
+    <sheet name="PriorityTransition" sheetId="6" r:id="rId2"/>
+    <sheet name="DefaultTransition" sheetId="4" r:id="rId3"/>
+    <sheet name="LoopTransition" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="44">
   <si>
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -61,10 +62,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Attack3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -93,10 +90,6 @@
   </si>
   <si>
     <t>[JumpDown]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[AnimationWait]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -113,6 +106,101 @@
   </si>
   <si>
     <t>[PressAttack]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Dash]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StandHit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Damage]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Die</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Die]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PressSkill]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PressGuard]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ultimate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PressUltimate]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JumpAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JumpSkill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Landing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Grounded]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirborneHit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DashAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DashSkill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recovery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[AnimationWaitTime]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack2</t>
+  </si>
+  <si>
+    <t>Attack1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,35 +536,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDEA8EF6-99BA-4D84-B48D-557D0DFDEA15}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="19.75" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="19.69921875" customWidth="1"/>
+    <col min="3" max="3" width="14.19921875" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -490,35 +578,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -526,13 +614,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -540,41 +628,41 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -582,24 +670,490 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="C12" s="1"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="1">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="1">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" s="1">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="1">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="1">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" s="1">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" s="1">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" s="1">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" s="1">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" s="1">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" s="1">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" s="1">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" s="1">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" s="1">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" s="1">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43" s="1">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -608,28 +1162,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6584C65C-F76C-407B-AD3E-B8DFD9B7E595}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC12423C-5067-4A04-85C6-6009CF14E5BB}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.75" customWidth="1"/>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="1" max="2" width="18.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -637,12 +1190,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>17</v>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -652,6 +1205,50 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6584C65C-F76C-407B-AD3E-B8DFD9B7E595}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="A1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="21.19921875" customWidth="1"/>
+    <col min="2" max="2" width="21.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D490A96-8DEE-499E-A2D8-C9EC43E15253}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -659,50 +1256,50 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.375" customWidth="1"/>
-    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="1" max="1" width="21.3984375" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B5" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Design/Excel/CharacterTransitionTable.xlsx
+++ b/Design/Excel/CharacterTransitionTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ProjectPM\Design\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AE98C7-F7E4-4DD4-BD3D-FB3A9444E735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223BA8A1-D342-4923-B635-CDB2F3087901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10116" yWindow="1932" windowWidth="11940" windowHeight="10032" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transition" sheetId="2" r:id="rId1"/>
@@ -93,10 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[Move]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>currentState</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -202,6 +198,9 @@
   <si>
     <t>Attack1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PressMove]</t>
   </si>
 </sst>
 </file>
@@ -538,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDEA8EF6-99BA-4D84-B48D-557D0DFDEA15}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -589,7 +588,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -614,10 +613,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -628,10 +627,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -642,10 +641,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -656,10 +655,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -670,10 +669,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -684,10 +683,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -698,10 +697,10 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -726,10 +725,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
@@ -740,10 +739,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
@@ -754,10 +753,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
@@ -768,10 +767,10 @@
         <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -782,10 +781,10 @@
         <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -796,10 +795,10 @@
         <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -810,10 +809,10 @@
         <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -838,10 +837,10 @@
         <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -852,10 +851,10 @@
         <v>12</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
@@ -866,10 +865,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
@@ -880,10 +879,10 @@
         <v>12</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
@@ -894,10 +893,10 @@
         <v>14</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
@@ -908,10 +907,10 @@
         <v>14</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
@@ -919,13 +918,13 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -933,13 +932,13 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
@@ -947,13 +946,13 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
@@ -961,13 +960,13 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
@@ -975,13 +974,13 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
@@ -989,13 +988,13 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
@@ -1003,7 +1002,7 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>12</v>
@@ -1017,13 +1016,13 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
@@ -1031,13 +1030,13 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
@@ -1045,13 +1044,13 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
@@ -1059,13 +1058,13 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
@@ -1073,13 +1072,13 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
@@ -1087,13 +1086,13 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
@@ -1101,13 +1100,13 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
@@ -1115,13 +1114,13 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
@@ -1129,10 +1128,10 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>9</v>
@@ -1192,10 +1191,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1209,7 +1208,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="A1:B3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1236,7 +1235,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1252,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D490A96-8DEE-499E-A2D8-C9EC43E15253}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1272,7 +1271,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -1283,7 +1282,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">

--- a/Design/Excel/CharacterTransitionTable.xlsx
+++ b/Design/Excel/CharacterTransitionTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ProjectPM\Design\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223BA8A1-D342-4923-B635-CDB2F3087901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA097006-D183-4D73-840A-3155E7239BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transition" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="44">
   <si>
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDEA8EF6-99BA-4D84-B48D-557D0DFDEA15}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -708,13 +708,13 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -725,10 +725,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
@@ -739,10 +739,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>20</v>
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
@@ -753,10 +753,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
@@ -767,10 +767,10 @@
         <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -781,10 +781,10 @@
         <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -795,10 +795,10 @@
         <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -809,10 +809,10 @@
         <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -820,13 +820,13 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
@@ -837,10 +837,10 @@
         <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -851,10 +851,10 @@
         <v>12</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
@@ -865,10 +865,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
@@ -879,10 +879,10 @@
         <v>12</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
@@ -890,13 +890,13 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
@@ -907,10 +907,10 @@
         <v>14</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
@@ -918,13 +918,13 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -935,10 +935,10 @@
         <v>19</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
@@ -949,10 +949,10 @@
         <v>19</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
@@ -963,10 +963,10 @@
         <v>19</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
@@ -974,13 +974,13 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
@@ -988,13 +988,13 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
@@ -1005,10 +1005,10 @@
         <v>33</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
@@ -1019,10 +1019,10 @@
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
@@ -1033,10 +1033,10 @@
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>20</v>
+        <v>42</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
@@ -1047,10 +1047,10 @@
         <v>33</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
@@ -1061,10 +1061,10 @@
         <v>33</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
@@ -1075,10 +1075,10 @@
         <v>33</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
+      </c>
+      <c r="D38" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
@@ -1089,10 +1089,10 @@
         <v>33</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
@@ -1103,10 +1103,10 @@
         <v>33</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
@@ -1114,13 +1114,13 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
@@ -1128,13 +1128,13 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
@@ -1142,10 +1142,10 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>8</v>
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>41</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>9</v>
@@ -1153,6 +1153,15 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1251,7 +1260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D490A96-8DEE-499E-A2D8-C9EC43E15253}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
